--- a/Data/DataRecordTickets.xlsx
+++ b/Data/DataRecordTickets.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bui Nguyen Minh Quan\Documents\UCRM_Process2\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bui Nguyen Minh Quan\Documents\UCRM_Processnew4\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -59,9 +59,6 @@
     <t>Khởi tạo</t>
   </si>
   <si>
-    <t>Thấp</t>
-  </si>
-  <si>
     <t>Chưa xác định</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>Điện thoại</t>
+  </si>
+  <si>
+    <t>Trung bình</t>
   </si>
 </sst>
 </file>
@@ -108,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -118,6 +118,9 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -399,15 +402,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="5" width="36.85546875" customWidth="1"/>
@@ -454,19 +457,19 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="F2" s="2">
         <v>45092</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" s="3">
         <v>45106.500092592592</v>
@@ -486,6 +489,9 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E3" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
